--- a/product-search-service/src/main/resources/product-search.xlsx
+++ b/product-search-service/src/main/resources/product-search.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Television</t>
   </si>
   <si>
-    <t xml:space="preserve">Sony KLV-32R2027</t>
+    <t xml:space="preserve">Sony KLV</t>
   </si>
   <si>
     <t xml:space="preserve">Sony</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">rani@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung LED samrt TV</t>
+    <t xml:space="preserve">Samsung LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">Samsung</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">singh@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">LG LED smart TV</t>
+    <t xml:space="preserve">LG LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">LG</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Camera</t>
   </si>
   <si>
-    <t xml:space="preserve">Canon EOS 1300D</t>
+    <t xml:space="preserve">Canon EOS</t>
   </si>
   <si>
     <t xml:space="preserve">Canon</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">sanjay@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikon D5600 Digital</t>
+    <t xml:space="preserve">Nikon D5600</t>
   </si>
   <si>
     <t xml:space="preserve">Nikon</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Air Conditioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Whirpool 0.8 ton 3 star Inverter split AC</t>
+    <t xml:space="preserve">Whirpool split AC</t>
   </si>
   <si>
     <t xml:space="preserve">Whirpool</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">harshi@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanyo 1.5 3star Inverter split AC</t>
+    <t xml:space="preserve">Sanyo split AC</t>
   </si>
   <si>
     <t xml:space="preserve">Sanyo</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Refrigerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Godrej 190 L3star Single door</t>
+    <t xml:space="preserve">Godrej L3star </t>
   </si>
   <si>
     <t xml:space="preserve">Godrej</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">ammtul@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">LG 260 L 4Star Frost Free Double Door</t>
+    <t xml:space="preserve">LG 4Star</t>
   </si>
   <si>
     <t xml:space="preserve">lgrefrigerator.jpg</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">rana55@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Huawei Mate 20Pro LYA-L29</t>
+    <t xml:space="preserve">Huawei Mate</t>
   </si>
   <si>
     <t xml:space="preserve">Huawei</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">shakheer@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Micromax Canvas 5 Lite</t>
+    <t xml:space="preserve">Micromax Canvas </t>
   </si>
   <si>
     <t xml:space="preserve">Micromax</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">bipin@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">TCL 100.3cm Full HD LED Smart TV</t>
+    <t xml:space="preserve">TCL LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">TCL</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">vipin@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Philips 55cm 5400Series LED TV</t>
+    <t xml:space="preserve">Philips LED TV</t>
   </si>
   <si>
     <t xml:space="preserve">Philips</t>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">teja@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mi LED TV 4A PRO</t>
+    <t xml:space="preserve">Mi LED TV </t>
   </si>
   <si>
     <t xml:space="preserve">Mi</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">nayana@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Panasonic 1 Ton 3Star Inverter Split AC</t>
+    <t xml:space="preserve">Panasonic Split AC</t>
   </si>
   <si>
     <t xml:space="preserve">Panasonic</t>
@@ -577,7 +577,7 @@
     <t xml:space="preserve">elsa@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Toshiba 1 Ton 3 Star Inverter Split AC</t>
+    <t xml:space="preserve">Toshiba  AC</t>
   </si>
   <si>
     <t xml:space="preserve">Toshiba</t>
@@ -598,7 +598,7 @@
     <t xml:space="preserve">anupama@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Star 1.25 Ton 3 Star Inverter Split AC</t>
+    <t xml:space="preserve">Blue Star AC</t>
   </si>
   <si>
     <t xml:space="preserve">Blue Star</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">vani@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Llyod 1 Ton 3 star Hot&amp;Cold Inverter Split AC</t>
+    <t xml:space="preserve">Llyod AC</t>
   </si>
   <si>
     <t xml:space="preserve">Llyod</t>
@@ -640,7 +640,7 @@
     <t xml:space="preserve">harika@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hitachi 1.5 Ton 5 Star Inverter Split AC</t>
+    <t xml:space="preserve">Hitachi AC</t>
   </si>
   <si>
     <t xml:space="preserve">Hitachi</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve">sivapriya@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Onida 1.5 Ton 5 Star Inverter Split AC</t>
+    <t xml:space="preserve">Onida  AC</t>
   </si>
   <si>
     <t xml:space="preserve">Onida</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">merlin@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Whirpool 240L Frost Free</t>
+    <t xml:space="preserve">Whirpool Frost</t>
   </si>
   <si>
     <t xml:space="preserve">whirpoolref.jpg</t>
@@ -697,7 +697,7 @@
     <t xml:space="preserve">thomas@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung 324L 3Star Inverter Frost Free</t>
+    <t xml:space="preserve">Samsung Frost</t>
   </si>
   <si>
     <t xml:space="preserve">samsungref.jpg</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">mathew@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Haier 195L 4Star DirectCool</t>
+    <t xml:space="preserve">Haier DirectCool</t>
   </si>
   <si>
     <t xml:space="preserve">Haier</t>
@@ -736,7 +736,7 @@
     <t xml:space="preserve">james@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Bosch 507 L 2 Star Frost Free</t>
+    <t xml:space="preserve">Bosch L2</t>
   </si>
   <si>
     <t xml:space="preserve">Bosch</t>
@@ -757,7 +757,7 @@
     <t xml:space="preserve">Washing Machine</t>
   </si>
   <si>
-    <t xml:space="preserve">LG 7kg Inverter Fully-Automatic TopLoading</t>
+    <t xml:space="preserve">LG TopLoading</t>
   </si>
   <si>
     <t xml:space="preserve">lgwm.jpg</t>
@@ -775,7 +775,7 @@
     <t xml:space="preserve">george@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Bosch 6kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">Bosch Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">boschwm.jpg</t>
@@ -793,7 +793,7 @@
     <t xml:space="preserve">joy@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung 7.5kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">Samsung Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">samsungwm.jpg</t>
@@ -811,7 +811,7 @@
     <t xml:space="preserve">austin@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">BPL 6.2kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">BPL Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">BPL</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">irfan@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Whirpool 7kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">Whirpool Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">whirpool.jpg</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">rasheed@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Haier 6kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">Haier Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">haierwm.jpg</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">laila@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Godrej 6.2kg Fully-Automated Toploading</t>
+    <t xml:space="preserve">Godrej Toploading</t>
   </si>
   <si>
     <t xml:space="preserve">godrejwm.jpg</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">liji@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Canon EOS M50 </t>
+    <t xml:space="preserve">Canon M50 </t>
   </si>
   <si>
     <t xml:space="preserve">canoneos.jpg</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">Speaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Boat Stone 200 Portable bluetooth speaker</t>
+    <t xml:space="preserve">BoatStone Speaker</t>
   </si>
   <si>
     <t xml:space="preserve">Boat Stone</t>
@@ -948,7 +948,7 @@
     <t xml:space="preserve">sherlock@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">GoPro Hero 7 Black Limited Edition</t>
+    <t xml:space="preserve">GoPro Camera</t>
   </si>
   <si>
     <t xml:space="preserve">GoPro</t>
@@ -969,7 +969,7 @@
     <t xml:space="preserve">watson@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">FujiFilm Instax Mini 9 Instant Camera</t>
+    <t xml:space="preserve">FujiFilm Camera</t>
   </si>
   <si>
     <t xml:space="preserve">FujiFilm</t>
@@ -990,7 +990,7 @@
     <t xml:space="preserve">learnado@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Leica 19107 Sofort Instant Camera</t>
+    <t xml:space="preserve">Leica Camera</t>
   </si>
   <si>
     <t xml:space="preserve">Leica</t>
@@ -1011,7 +1011,7 @@
     <t xml:space="preserve">winslet@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Sony SRS-XB12 Extra Bass Wireless Speaker</t>
+    <t xml:space="preserve">Sony Speaker</t>
   </si>
   <si>
     <t xml:space="preserve">sonyspk.jpg</t>
@@ -1029,7 +1029,7 @@
     <t xml:space="preserve">siddique@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mivi Roam BS5RM Ultra-Portable Wireless Speaker</t>
+    <t xml:space="preserve">Mivi Speaker</t>
   </si>
   <si>
     <t xml:space="preserve">Mivi</t>
@@ -1047,7 +1047,7 @@
     <t xml:space="preserve">saleem@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">JBL Flip 3 Stealth Waterproof Wireless Speaker</t>
+    <t xml:space="preserve">JBL Speaker</t>
   </si>
   <si>
     <t xml:space="preserve">JBL</t>
@@ -1068,7 +1068,7 @@
     <t xml:space="preserve">jerin@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">UE Wonderboom Portable Wireless Speaker</t>
+    <t xml:space="preserve">UE Speaker</t>
   </si>
   <si>
     <t xml:space="preserve">UE Wonderboom</t>
@@ -1092,7 +1092,7 @@
     <t xml:space="preserve">Home Audio</t>
   </si>
   <si>
-    <t xml:space="preserve">Sony HT-Rt3 Real </t>
+    <t xml:space="preserve">Sony Real </t>
   </si>
   <si>
     <t xml:space="preserve">sonyhaudio.jpg</t>
@@ -1110,7 +1110,7 @@
     <t xml:space="preserve">shinto@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Philips Dhoom MMS2580B Home theatre system</t>
+    <t xml:space="preserve">Philips system</t>
   </si>
   <si>
     <t xml:space="preserve">philipshaudio.jpg</t>
@@ -1128,7 +1128,7 @@
     <t xml:space="preserve">arun@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Bose Solo 5 Soundbar</t>
+    <t xml:space="preserve">Bose Solo Soundbar</t>
   </si>
   <si>
     <t xml:space="preserve">Bose</t>
@@ -1368,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/product-search-service/src/main/resources/product-search.xlsx
+++ b/product-search-service/src/main/resources/product-search.xlsx
@@ -1368,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
